--- a/Excel Files/Scenario 1/Expected Data/TC144/Expected Purchase Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC144/Expected Purchase Order.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -333,7 +333,7 @@
     <t>65-6222-3711</t>
   </si>
   <si>
-    <t>pCS201-2311001</t>
+    <t>pDS204-2311001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -345,55 +345,52 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>06 Nov 2023 - 12 Nov 2023</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
   </si>
   <si>
     <t>By Invoice Date</t>
   </si>
   <si>
-    <t>13 Nov ~ 19 Nov</t>
+    <t>04 Dec ~ 10 Dec</t>
   </si>
   <si>
     <t>FC Qty 1</t>
   </si>
   <si>
+    <t>s1005</t>
+  </si>
+  <si>
+    <t>SG-TTAP-s1-005</t>
+  </si>
+  <si>
+    <t>sDB204-2311001</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-POC</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
     <t>s1001</t>
   </si>
   <si>
     <t>SG-TTAP-s1-001</t>
   </si>
   <si>
-    <t>sCB201-2311001</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-POC</t>
-  </si>
-  <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>s1002</t>
   </si>
   <si>
     <t>SG-TTAP-s1-002</t>
-  </si>
-  <si>
-    <t>s1005</t>
-  </si>
-  <si>
-    <t>SG-TTAP-s1-005</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Processing</t>
   </si>
   <si>
     <t>AUTHORIZATION:</t>
@@ -9531,8 +9528,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="21" max="16384" style="19" width="12.625" collapsed="true"/>
-    <col min="20" max="20" style="19" width="18.75" collapsed="true" customWidth="true"/>
+    <col min="20" max="16384" style="19" width="12.625" collapsed="true"/>
     <col min="19" max="19" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="18" max="18" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="17" max="17" style="19" width="18.75" collapsed="true" customWidth="true"/>
@@ -9916,7 +9912,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45231.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10030,7 +10026,6 @@
       <c r="S21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="35"/>
@@ -10053,7 +10048,6 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="35"/>
@@ -10073,19 +10067,16 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45237.0</v>
+        <v>45251.0</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>45275.0</v>
+        <v>45293.0</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>45302.0</v>
+        <v>45331.0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>45236.0</v>
-      </c>
-      <c r="T23" s="2" t="n">
-        <v>45240.0</v>
+        <v>45272.0</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -10103,25 +10094,25 @@
         <v>103</v>
       </c>
       <c r="G24" s="42" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H24" s="42" t="n">
         <v>10.0</v>
       </c>
       <c r="I24" s="42" t="n">
-        <v>1620.0</v>
+        <v>800.0</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>104</v>
       </c>
       <c r="K24" s="44" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>105</v>
       </c>
       <c r="M24" s="44" t="n">
-        <v>16200.0</v>
+        <v>800.0</v>
       </c>
       <c r="N24" s="42" t="n">
         <v>1000.0</v>
@@ -10130,14 +10121,17 @@
         <v>106</v>
       </c>
       <c r="P24" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="42" t="n">
-        <v>1620.0</v>
-      </c>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
+        <v>600.0</v>
+      </c>
+      <c r="R24" s="42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="S24" s="42" t="n">
+        <v>800.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="25" t="s">
@@ -10163,16 +10157,16 @@
         <v>1620.0</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K25" s="44" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="L25" s="27" t="s">
         <v>105</v>
       </c>
       <c r="M25" s="44" t="n">
-        <v>17820.0</v>
+        <v>16200.0</v>
       </c>
       <c r="N25" s="42" t="n">
         <v>1000.0</v>
@@ -10181,21 +10175,22 @@
         <v>106</v>
       </c>
       <c r="P25" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="42" t="n">
         <v>1620.0</v>
       </c>
       <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
+      <c r="S25" s="42" t="n">
+        <v>1620.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25" t="s">
@@ -10205,56 +10200,51 @@
         <v>103</v>
       </c>
       <c r="G26" s="42" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H26" s="42" t="n">
         <v>10.0</v>
       </c>
       <c r="I26" s="42" t="n">
-        <v>800.0</v>
+        <v>1620.0</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K26" s="44" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="L26" s="27" t="s">
         <v>105</v>
       </c>
       <c r="M26" s="44" t="n">
-        <v>800.0</v>
+        <v>17820.0</v>
       </c>
       <c r="N26" s="42" t="n">
         <v>1000.0</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P26" s="42" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="42" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="R26" s="42" t="n">
-        <v>200.0</v>
-      </c>
+        <v>1620.0</v>
+      </c>
+      <c r="R26" s="42"/>
       <c r="S26" s="42" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="T26" s="42" t="n">
-        <v>200.0</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="R29" s="41" t="s">
-        <v>113</v>
+      <c r="Q29" s="41" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30">
-      <c r="R30" s="41" t="s">
-        <v>114</v>
+      <c r="Q30" s="41" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -10277,7 +10267,7 @@
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="S21:S22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
